--- a/metrics/MAPE/average & upto/Retinopatía de fondo.xlsx
+++ b/metrics/MAPE/average & upto/Retinopatía de fondo.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1845614529959.355</v>
+        <v>1949418380894.658</v>
       </c>
       <c r="C3" t="n">
-        <v>1923077504628.613</v>
+        <v>1972611279314.766</v>
       </c>
       <c r="D3" t="n">
-        <v>1965309576446.507</v>
+        <v>1836557650127.831</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2897039185300.464</v>
+        <v>2879451557299.903</v>
       </c>
       <c r="C4" t="n">
-        <v>2801202215134.039</v>
+        <v>2838843421625.64</v>
       </c>
       <c r="D4" t="n">
-        <v>2916692223121.013</v>
+        <v>2824590270339.611</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24810731830345.87</v>
+        <v>43260826676278.62</v>
       </c>
       <c r="C5" t="n">
-        <v>54972601761567.35</v>
+        <v>12412723198247.36</v>
       </c>
       <c r="D5" t="n">
-        <v>37505907901857.48</v>
+        <v>38911320899940.51</v>
       </c>
     </row>
   </sheetData>
